--- a/assets/downloadables/DCF_Form_7.xlsx
+++ b/assets/downloadables/DCF_Form_7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer Veriton M4660G\Downloads\DATA CAPTURE FORMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Data_Capture_Forms\DATA CAPTURE FORMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="form7" sheetId="1" r:id="rId1"/>
+    <sheet name="Guidelines" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>FORM 7 - TRADE PROMOTION SERVICES TRACKER</t>
   </si>
@@ -125,6 +126,18 @@
       <t xml:space="preserve">
 (DIPs, Implementation Plan, Matching Grant Agreement, etc.)</t>
     </r>
+  </si>
+  <si>
+    <t>Input field</t>
+  </si>
+  <si>
+    <t>Guideline</t>
+  </si>
+  <si>
+    <t>Date Format</t>
+  </si>
+  <si>
+    <t>yyyy-mm-dd</t>
   </si>
 </sst>
 </file>
@@ -159,7 +172,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +209,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -257,11 +282,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -289,6 +342,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -642,31 +713,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="16"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="24"/>
       <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -682,14 +753,14 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -717,12 +788,12 @@
       <c r="Q3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="19"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="27"/>
       <c r="V3" s="5" t="s">
         <v>26</v>
       </c>
@@ -1233,4 +1304,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="15"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/downloadables/DCF_Form_7.xlsx
+++ b/assets/downloadables/DCF_Form_7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Data_Capture_Forms\DATA CAPTURE FORMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\dti_web_app_v2\assets\downloadables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -172,7 +172,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +221,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -314,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -389,6 +395,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -682,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:U5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,67 +847,67 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="28">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="28">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="28">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="28">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="28">
         <v>4</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="28">
         <v>5</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="28">
         <v>6</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="28">
         <v>7</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="28">
         <v>8</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="28">
         <v>9</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="28">
         <v>10</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="28">
         <v>11</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="28">
         <v>12</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="28">
         <v>13</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="28">
         <v>14</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="28">
         <v>15</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="28">
         <v>16</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="28">
         <v>17</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="28">
         <v>18</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="28">
         <v>19</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="28">
         <v>20</v>
       </c>
     </row>

--- a/assets/downloadables/DCF_Form_7.xlsx
+++ b/assets/downloadables/DCF_Form_7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\dti_web_app_v2\assets\downloadables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\update template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>FORM 7 - TRADE PROMOTION SERVICES TRACKER</t>
   </si>
@@ -139,12 +139,36 @@
   <si>
     <t>yyyy-mm-dd</t>
   </si>
+  <si>
+    <t>Type of Trade Promotion Services organized/participated </t>
+  </si>
+  <si>
+    <t>Select one (Trade Fair - Provincial,Trade Fair - Regional,Trade Fair - National,Trade Fair - International,Trade/Selling Missions Province and Region,Trade/Selling Missions National,Trade/Selling Missions International,Business Matching Province and Region,Business Matching National,Business Matching International)</t>
+  </si>
+  <si>
+    <t>Type of Beneficiary</t>
+  </si>
+  <si>
+    <t>MSME,FO,Farmer</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Select one (PWD,Youth,IP,SC,Abled)</t>
+  </si>
+  <si>
+    <t>Sales Generated per MSME (17-20)</t>
+  </si>
+  <si>
+    <t>Input data using only number values. Avoid using any special characters or letters.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +194,13 @@
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -357,49 +388,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -722,31 +749,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="24"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="22"/>
       <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -762,14 +789,14 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -797,12 +824,12 @@
       <c r="Q3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="27"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="25"/>
       <c r="V3" s="5" t="s">
         <v>26</v>
       </c>
@@ -847,67 +874,67 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="15">
         <v>0</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="15">
         <v>2</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="15">
         <v>3</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="15">
         <v>4</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="15">
         <v>5</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="15">
         <v>6</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="15">
         <v>7</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="15">
         <v>8</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="15">
         <v>9</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="15">
         <v>10</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="15">
         <v>11</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="15">
         <v>12</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="15">
         <v>13</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="15">
         <v>14</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="15">
         <v>15</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="15">
         <v>16</v>
       </c>
-      <c r="R5" s="28">
+      <c r="R5" s="15">
         <v>17</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="15">
         <v>18</v>
       </c>
-      <c r="T5" s="28">
+      <c r="T5" s="15">
         <v>19</v>
       </c>
-      <c r="U5" s="28">
+      <c r="U5" s="15">
         <v>20</v>
       </c>
     </row>
@@ -1320,13 +1347,13 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1"/>
+    <col min="2" max="2" width="84" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1345,29 +1372,45 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-    </row>
-    <row r="6" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="15"/>
+    <row r="3" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
